--- a/main.xlsx
+++ b/main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1z3r\OneDrive\Рабочий стол\учеба\анки\excel-sql-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DF3673-5532-447D-8266-DCCC65E64A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E990462A-F2D5-4EFE-B8CE-E16E993CF584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{80E8A864-518A-4B34-9823-921E44706ED2}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="154">
   <si>
     <t xml:space="preserve"> Операция </t>
   </si>
@@ -331,6 +331,177 @@
   </si>
   <si>
     <t>de::esp::базовые_операции::объединение_строк</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СВЯЗЫВАНИЕ ДАННЫХ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOIN </t>
+  </si>
+  <si>
+    <t>Разворот таблицы</t>
+  </si>
+  <si>
+    <t>Unpivot</t>
+  </si>
+  <si>
+    <t>Дубликаты</t>
+  </si>
+  <si>
+    <t>Транспонирование</t>
+  </si>
+  <si>
+    <t>Сброс индекса</t>
+  </si>
+  <si>
+    <t>Multi-key joins</t>
+  </si>
+  <si>
+    <t>Left/Right Joins</t>
+  </si>
+  <si>
+    <t>Anti/Semi Join</t>
+  </si>
+  <si>
+    <t>Merge-As-Of</t>
+  </si>
+  <si>
+    <t>reset_index()</t>
+  </si>
+  <si>
+    <t>merge(indicator=True)</t>
+  </si>
+  <si>
+    <t>pd.merge_asof()</t>
+  </si>
+  <si>
+    <t>WHERE IS NULL</t>
+  </si>
+  <si>
+    <t>JOIN по времени</t>
+  </si>
+  <si>
+    <t>merge()</t>
+  </si>
+  <si>
+    <t>melt()</t>
+  </si>
+  <si>
+    <t>PQ Merge</t>
+  </si>
+  <si>
+    <t>pivot_table()</t>
+  </si>
+  <si>
+    <t>Pivot Table</t>
+  </si>
+  <si>
+    <t>PIVOT</t>
+  </si>
+  <si>
+    <t>UNPIVOT</t>
+  </si>
+  <si>
+    <t>PQ Unpivot</t>
+  </si>
+  <si>
+    <t>drop_duplicates()</t>
+  </si>
+  <si>
+    <t>DISTINCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove Duplicates </t>
+  </si>
+  <si>
+    <t>df.T</t>
+  </si>
+  <si>
+    <t>CASE WHEN</t>
+  </si>
+  <si>
+    <t>Transpose</t>
+  </si>
+  <si>
+    <t>merge(left_on,...)</t>
+  </si>
+  <si>
+    <t>JOIN ON a=b</t>
+  </si>
+  <si>
+    <t>PQ custom join</t>
+  </si>
+  <si>
+    <t>merge(how="left")</t>
+  </si>
+  <si>
+    <t>LEFT/RIGHT</t>
+  </si>
+  <si>
+    <t>PQ Merge-type</t>
+  </si>
+  <si>
+    <t>Транспортно-логистическая компания</t>
+  </si>
+  <si>
+    <t>Сцепка контейнеров</t>
+  </si>
+  <si>
+    <t>Два контейнера соединяют твистлоком. Таблицы сцепляются по ключу так же, как блоки груза.</t>
+  </si>
+  <si>
+    <t>Поворот складской карты</t>
+  </si>
+  <si>
+    <t>Оператор разворачивает схему склада, чтобы увидеть распределение грузов по другим осям.</t>
+  </si>
+  <si>
+    <t>Расплавленный лист учёта</t>
+  </si>
+  <si>
+    <t>Многомерный отчёт «расплавляется» обратно в линейный поток операций.</t>
+  </si>
+  <si>
+    <t>Исчезающие штрихкоды</t>
+  </si>
+  <si>
+    <t>Сканер убирает повторяющиеся штрихкоды, оставляя уникальные.</t>
+  </si>
+  <si>
+    <t>Повернутая маршрутная схема</t>
+  </si>
+  <si>
+    <t>Схему маршрута поворачивают на 90°, строки становятся столбцами.</t>
+  </si>
+  <si>
+    <t>Новая нумерация рейсов</t>
+  </si>
+  <si>
+    <t>На рейсы назначают новые номера, старую нумерацию сбрасывают.</t>
+  </si>
+  <si>
+    <t>Проверка машины на въезде по номеру и дате</t>
+  </si>
+  <si>
+    <t>Пропускают только если совпали два параметра. Соединение по нескольким ключам работает так же.</t>
+  </si>
+  <si>
+    <t>Вагонный состав частично сцеплен</t>
+  </si>
+  <si>
+    <t>В левой группе все вагоны. В правой — только присоединённые.</t>
+  </si>
+  <si>
+    <t>КПП фильтрует машины по спискам</t>
+  </si>
+  <si>
+    <t>Anti — пропустить только тех, кого нет в списке. Semi — взять тех, кто есть, но без присоединения данных.</t>
+  </si>
+  <si>
+    <t>Сопоставление GPS-лога с событием рейса</t>
+  </si>
+  <si>
+    <t>Каждому событию подбирают ближайший предыдущий GPS-сигнал.</t>
   </si>
 </sst>
 </file>
@@ -378,7 +549,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -401,12 +572,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -420,6 +602,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -757,17 +940,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5FE94AB-FF7D-4C22-B9A5-DE79EDCEF66C}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" customWidth="1"/>
     <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
@@ -1198,142 +1381,314 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>134</v>
+      </c>
       <c r="I12" s="9"/>
-      <c r="J12" s="8"/>
+      <c r="J12" s="8" t="s">
+        <v>135</v>
+      </c>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>136</v>
+      </c>
       <c r="I13" s="9"/>
-      <c r="J13" s="8"/>
+      <c r="J13" s="8" t="s">
+        <v>137</v>
+      </c>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>138</v>
+      </c>
       <c r="I14" s="9"/>
-      <c r="J14" s="8"/>
+      <c r="J14" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="I15" s="9"/>
-      <c r="J15" s="8"/>
+      <c r="J15" s="8" t="s">
+        <v>141</v>
+      </c>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>142</v>
+      </c>
       <c r="I16" s="9"/>
-      <c r="J16" s="8"/>
+      <c r="J16" s="8" t="s">
+        <v>143</v>
+      </c>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>103</v>
+      </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+      <c r="G17" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>144</v>
+      </c>
       <c r="I17" s="9"/>
-      <c r="J17" s="8"/>
+      <c r="J17" s="8" t="s">
+        <v>145</v>
+      </c>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>146</v>
+      </c>
       <c r="I18" s="9"/>
-      <c r="J18" s="8"/>
+      <c r="J18" s="8" t="s">
+        <v>147</v>
+      </c>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>148</v>
+      </c>
       <c r="I19" s="9"/>
-      <c r="J19" s="8"/>
+      <c r="J19" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+      <c r="A20" s="8">
+        <v>18</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>106</v>
+      </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
+      <c r="F20" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="I20" s="9"/>
-      <c r="J20" s="8"/>
+      <c r="J20" s="8" t="s">
+        <v>151</v>
+      </c>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+      <c r="A21" s="8">
+        <v>18</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>107</v>
+      </c>
       <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
+      <c r="F21" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>152</v>
+      </c>
       <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
+      <c r="J21" s="8" t="s">
+        <v>153</v>
+      </c>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
     </row>
